--- a/PagineHtml/9-Panni per la pulizia in bambù biodegradabili | bamboo cleaning cloths reusable eco-friendly wipes manufacturer supplier.xlsx
+++ b/PagineHtml/9-Panni per la pulizia in bambù biodegradabili | bamboo cleaning cloths reusable eco-friendly wipes manufacturer supplier.xlsx
@@ -1230,203 +1230,203 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Asciugamano Eco-Friendly di Carta Di Bambù Organico Riutilizzabile Senza Carta Del Bambino Panno Da Cucina Panno di Unpaper Asciugamani</t>
+          <t>Salviette per la pulizia di scarpe da ginnastica usa e getta personalizzate in bambù non tessuto organico di alta qualità</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,3465-0,589 €</t>
+          <t>0,1733-0,3898 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 1.000 sacchi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Henan Zenpe Technology Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
+          <t>Zhejiang Furuisen Spunlaced Non-Wovens Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Asciugamano in bambù per la pulizia della cucina resistente riutilizzabile ad asciugatura rapida ecologico biodegradabile al 100%</t>
+          <t>Asciugamano Eco-Friendly di Carta Di Bambù Organico Riutilizzabile Senza Carta Del Bambino Panno Da Cucina Panno di Unpaper Asciugamani</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,4331 €</t>
+          <t>0,3465-0,589 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Changshu Power Clean Co., Ltd.</t>
+          <t>Henan Zenpe Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso eco-friendly di bambù bagnato carta velina 10 pz campione libero lavabile salviettine detergenti biodegradabili con il tuo Logo</t>
+          <t>Asciugamano in bambù per la pulizia della cucina resistente riutilizzabile ad asciugatura rapida ecologico biodegradabile al 100%</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,0693-0,104 €</t>
+          <t>0,4331 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 pacchetti</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fuyang Yangyang Health Technology Co., Ltd.</t>
+          <t>Changshu Power Clean Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Personalizzazione del Logo salviette di bambù fornitore di fabbrica-15 Per confezione salviettine detergenti biodegradabili Per bambini senza alberi in movimento</t>
+          <t>Commercio all'ingrosso eco-friendly di bambù bagnato carta velina 10 pz campione libero lavabile salviettine detergenti biodegradabili con il tuo Logo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,1733-0,2166 €</t>
+          <t>0,0693-0,104 €</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 pacchetti</t>
+          <t>Ordine minimo: 10.000 pacchetti</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zhejiang Qimei Commodity Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Fuyang Yangyang Health Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Produttore all'ingrosso fibra di bambù salviette per la pulizia stracci eco-friendly piatto panno Super assorbente per la pulizia della cucina asciugamano</t>
+          <t>Personalizzazione del Logo salviette di bambù fornitore di fabbrica-15 Per confezione salviettine detergenti biodegradabili Per bambini senza alberi in movimento</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,104-0,2426 €</t>
+          <t>0,1733-0,2166 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 20.000 pacchetti</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yiwu Chen Ju Electronic Commerce Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
+          <t>Zhejiang Qimei Commodity Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica di cotone di bambù organico panno viso asciugamano riutilizzabile per la rimozione del trucco</t>
+          <t>Produttore all'ingrosso fibra di bambù salviette per la pulizia stracci eco-friendly piatto panno Super assorbente per la pulizia della cucina asciugamano</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,4764 €</t>
+          <t>0,104-0,2426 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dongguan Ruisheng Textile Co., Ltd.</t>
+          <t>Yiwu Chen Ju Electronic Commerce Co., Ltd.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Salviette di bambù lavabili all'ingrosso in tessuto di bambù 100% riutilizzabili da cucina rotolo di asciugamani di carta</t>
+          <t>Commercio all'ingrosso della fabbrica di cotone di bambù organico panno viso asciugamano riutilizzabile per la rimozione del trucco</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,2512 €</t>
+          <t>0,4764 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 sacchi</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Colorful medium inc.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>Dongguan Ruisheng Textile Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>100% salviette di bambù lavabile cucina riutilizzabile asciugamano rotolo biodegradabile panno di pulizia del piatto di bambù</t>
+          <t>Salviette di bambù lavabili all'ingrosso in tessuto di bambù 100% riutilizzabili da cucina rotolo di asciugamani di carta</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,4331-1,30 €</t>
+          <t>0,2512 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 rulli</t>
+          <t>Ordine minimo: 10.000 sacchi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>King Tech Co., Ltd.</t>
+          <t>Colorful medium inc.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1434,12 +1434,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Asciugamano e straccio di carta di bambù usa e getta per la pulizia della cucina</t>
+          <t>100% salviette di bambù lavabile cucina riutilizzabile asciugamano rotolo biodegradabile panno di pulizia del piatto di bambù</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1,10-2,07 €</t>
+          <t>0,4331-1,30 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1449,157 +1449,157 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hangzhou Shengbo Cleaning Product Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>King Tech Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Prodotti promozionali salviette per scarpe personalizzate con etichetta privata per lucidare e pulire le scarpe da ginnastica</t>
+          <t>Asciugamano e straccio di carta di bambù usa e getta per la pulizia della cucina</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,2426-0,2599 €</t>
+          <t>1,10-2,07 €</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 sacchi</t>
+          <t>Ordine minimo: 1.000 rulli</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Zhejiang Huashun Technology Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Hangzhou Shengbo Cleaning Product Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VVG eco-friendly riutilizzabile biodegradabile bambù biancheria lavabile in fibra di bambù multiuso asciugamano da cucina</t>
+          <t>Prodotti promozionali salviette per scarpe personalizzate con etichetta privata per lucidare e pulire le scarpe da ginnastica</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1,04-1,72 €</t>
+          <t>0,2426-0,2599 €</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.008 rulli</t>
+          <t>Ordine minimo: 20.000 sacchi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ningbo Yachen Import &amp; Export Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>Zhejiang Huashun Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BSCI ISO9001 tessuto di bambù all'ingrosso salviette di bambù lavabili 100% riutilizzabili da cucina rotolo di carta di bambù</t>
+          <t>VVG eco-friendly riutilizzabile biodegradabile bambù biancheria lavabile in fibra di bambù multiuso asciugamano da cucina</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,2945-0,3118 €</t>
+          <t>1,04-1,72 €</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 rulli</t>
+          <t>Ordine minimo: 1.008 rulli</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dongguan Winall Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Ningbo Yachen Import &amp; Export Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECO BOOM di bambù cotone biodegradabile personalizzato ipoallergenico produttore di marca pet salviette per la pulizia</t>
+          <t>BSCI ISO9001 tessuto di bambù all'ingrosso salviette di bambù lavabili 100% riutilizzabili da cucina rotolo di carta di bambù</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,7016-0,8228 €</t>
+          <t>0,2945-0,3118 €</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 pacchetti</t>
+          <t>Ordine minimo: 30.000 rulli</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Xiamen Mk Health Care Product Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
+          <t>Dongguan Winall Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cina fornitore eco-friendly microfibra asciugamano da cucina di bambù panno per la pulizia di vetro e piatto</t>
+          <t>ECO BOOM di bambù cotone biodegradabile personalizzato ipoallergenico produttore di marca pet salviette per la pulizia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,2859 €</t>
+          <t>0,7016-0,8228 €</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 parti</t>
+          <t>Ordine minimo: 10 pacchetti</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shanghai Kingmax Commodity Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Xiamen Mk Health Care Product Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cina fornitore eco-friendly microfibra asciugamano da cucina di bambù panno per la pulizia della cucina e del piatto</t>
+          <t>Cina fornitore eco-friendly microfibra asciugamano da cucina di bambù panno per la pulizia di vetro e piatto</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,2772-0,3898 €</t>
+          <t>0,2859 €</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 10.000 parti</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Changshu He Gui Textiles Co., Ltd.</t>
+          <t>Shanghai Kingmax Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1607,22 +1607,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>100% di bambù biodegradabile salviette per la pulizia riutilizzabili asciugamani di carta lavabile rotolo di carta di bambù</t>
+          <t>Cina fornitore eco-friendly microfibra asciugamano da cucina di bambù panno per la pulizia della cucina e del piatto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2,17 €</t>
+          <t>0,2772-0,3898 €</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 chilogrammi</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shanghai Mtg Cleaning Material Co., Ltd.</t>
+          <t>Changshu He Gui Textiles Co., Ltd.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1630,81 +1630,77 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EASYMOM salviette in spugna di bambù per neonati in velluto di bambù a 2 strati lavabili riutilizzabili all'ingrosso EASYMOM</t>
+          <t>100% di bambù biodegradabile salviette per la pulizia riutilizzabili asciugamani di carta lavabile rotolo di carta di bambù</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,5717 €</t>
+          <t>2,17 €</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 1.000 chilogrammi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pujiang Hailan Garments Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Shanghai Mtg Cleaning Material Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>All'ingrosso riutilizzabile in fibra di bambù lavabile per pulire stracci da cucina</t>
+          <t>EASYMOM salviette in spugna di bambù per neonati in velluto di bambù a 2 strati lavabili riutilizzabili all'ingrosso EASYMOM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,2166-0,3032 €</t>
+          <t>0,5717 €</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Changshu Beisimei Knitting Textile Co., Ltd.</t>
+          <t>Pujiang Hailan Garments Co., Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>100% panno di pulizia di bambù degradabile del carbonio riutilizzabile per l'applicazione della cucina</t>
+          <t>All'ingrosso riutilizzabile in fibra di bambù lavabile per pulire stracci da cucina</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,2599 €</t>
+          <t>0,2166-0,3032 €</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 parti</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jiaxing Solid Houseware Products Co., Ltd.</t>
+          <t>Changshu Beisimei Knitting Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
